--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1568364.377625288</v>
+        <v>1639428.444567226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13321523.02504341</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2370479.640547424</v>
+        <v>698313.6830760745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6635632.096497487</v>
+        <v>7171039.886320177</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>346.2148070994193</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>217.8499176782645</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>219.7191631950154</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.9607423225982</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>160.6943372107074</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>152.9562222321089</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>246.4873869990359</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1540,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>266.0764296468713</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1813,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>2.669536049219641</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,10 +2092,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898703</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
-        <v>220.9221822477236</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>246.9041165967652</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2567,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -2719,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>267.1266236364837</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>100.7973101322335</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>125.1966014194132</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3670,13 +3672,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>86.73226015562099</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>189.5733066869304</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67928133131359</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>6.577609483167469</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9645139226647</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>160.9061021023308</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.5578883150744</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>435.6975623687786</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>416.445345594183</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>394.5088097824446</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>116.829168004879</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>667.4947029893171</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.3658485662004</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>1153.275937980036</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>1153.275937980036</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1703.941472964474</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1703.941472964474</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.8849779950629</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>545.8849779950629</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>382.5682051218336</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1761.521482791039</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1479.810015399068</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>1204.957611571581</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>962.3937150173865</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.0509467071286</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1687.090221355722</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>1260.189491369022</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>1240.937274594427</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>814.9603347422842</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>389.8361529316844</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>389.537494561537</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>91.66911603557185</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>56.77224477904305</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>759.3287739197008</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>759.3287739197008</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1461.885303060359</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2164.441832201016</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2838.612238952152</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2838.612238952152</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2734.244944825293</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2734.244944825293</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>2734.244944825293</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>2512.306396143459</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>2115.915046443806</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>2108.235451651957</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.938585647252</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.2021097991295</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>56.77224477904305</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>460.3468170782372</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>460.3468170782372</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>460.3468170782372</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1162.903346218895</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.459875359553</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.459875359553</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1139.95336730328</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>967.9808041821959</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>804.6640313089666</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>638.4558254618202</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>466.5940512363806</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>300.3370815306127</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5408130387671</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.2635730032011</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>340.7911742090382</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.480495503459</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1086.66629047371</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.157801349746</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1819.585930029509</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.18514195141</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.185272192171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2190.146658879345</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2020.01161139848</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2020.01161139848</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>2020.01161139848</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1738.300144006508</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1738.300144006508</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1495.736247452314</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1330.119336015346</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>985.1814387893528</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>558.280708802653</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>134.9880879876532</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>113.0515521759148</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>91.96777440571915</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>91.66911603557185</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>91.66911603557185</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>157.3008371440931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>157.3008371440931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>859.8573662847508</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>859.8573662847508</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>859.8573662847508</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1562.413895425409</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2264.970424566066</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2734.244944825293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2734.244944825293</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2571.927432491245</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2214.438017617495</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1818.046667917841</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1406.326669085588</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000.989399040479</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>204.2021097991295</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>56.77224477904305</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>328.4697340586341</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>328.4697340586341</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>1031.026263199292</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1031.026263199292</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1031.026263199292</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1162.903346218895</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.459875359553</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.459875359553</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.9082961810865</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>638.4070616031987</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>638.4070616031987</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>472.1988557560522</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>300.3370815306127</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>300.3370815306127</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>156.5408130387671</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>114.2635730032011</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>340.7911742090382</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>695.480495503459</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1086.66629047371</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.157801349746</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1819.585930029509</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.18514195141</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.185272192171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2237.185272192171</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2067.050224711306</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1823.710876937206</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1543.526428437511</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1261.814961045539</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1261.814961045539</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1019.251064491344</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.9082961810865</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.066717243485</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.165987256785</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>907.8733664417853</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>481.8964265896428</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>56.77224477904305</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>759.3287739197008</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.885303060359</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.499374929592</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>2018.499374929592</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>2721.05590407025</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2721.05590407025</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2721.05590407025</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.635080367268</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.635080367268</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2177.915081535015</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2177.915081535015</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>698.7578693561157</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>698.7578693561157</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>698.7578693561157</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>1401.314398496773</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1401.314398496773</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.459875359553</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1139.95336730328</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>967.9808041821959</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>804.6640313089666</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>638.4558254618202</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>466.5940512363806</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2237.185272192171</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.185272192171</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>2237.185272192171</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>2237.185272192171</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.878404707285</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.026000879798</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>1556.462104325604</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>1330.119336015346</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1601.70660578326</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1174.80587579656</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>751.5132549815605</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>325.5363151294181</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>325.5363151294181</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>759.3287739197008</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.885303060359</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>1461.885303060359</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.970230307311</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>2382.526759447969</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>2382.526759447969</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2838.612238952152</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2838.612238952152</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2426.8922401199</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2021.55497007479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.21888774095488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>335.916377020546</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>926.4013035888855</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>926.4013035888855</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>1162.903346218895</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.459875359553</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.459875359553</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.459875359553</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.4558254618202</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>638.4558254618202</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>638.4558254618202</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>638.4558254618202</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>466.5940512363806</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2190.146658879345</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.450157819527</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1944.110810045427</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1663.926361545731</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1382.21489415376</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.362490326273</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>864.7985937720781</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.4558254618202</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5506,37 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5750,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>712.1625887178412</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>540.1900255967601</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>540.1900255967601</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1646.087626121847</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.087626121847</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>1371.23522229436</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>1128.671325740165</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>902.3285574299068</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
         <v>4659.050190787244</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.3984947971121</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>750.4259316760281</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.182595765602</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1581.471128373631</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.471128373631</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1338.907231819436</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1112.564463509178</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6230,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.576687723259</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.338928650966</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>3602.366365529882</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656653</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809506</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4989.975433446943</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4708.263966054971</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4433.411562227484</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4190.847665673289</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>3964.504897363031</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3585.670021589897</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3413.697458468813</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3250.380685595584</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3250.380685595584</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4384.797789363551</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4103.086321971579</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3828.233918144092</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3585.670021589897</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3585.670021589897</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.167063056836</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1720.387267471131</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1438.67580007916</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>1438.67580007916</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>1438.67580007916</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.333031768902</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.4200707646526</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>810.4475076435685</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1398.928807786976</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1172.586039476718</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7172,10 +7174,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
         <v>1715.81204584877</v>
@@ -7217,7 +7219,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1832.396244838396</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1405.710645797452</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>978.809915810752</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7702376983141</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>516.7932978461716</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>91.66911603557185</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>91.66911603557185</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>91.66911603557185</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>730.942651530179</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1433.499180670837</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2136.055709811495</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2136.055709811495</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>2838.612238952152</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>2838.612238952152</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>2838.612238952152</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2580.257329548564</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.767914674814</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2222.767914674814</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1811.047915842561</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1405.710645797452</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>623.8957358104983</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>506.3898323280031</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>402.5498738432881</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>297.8479401162253</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>204.2021097991295</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>110.1483380167335</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>56.77224477904305</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>460.3468170782372</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>1162.903346218895</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>1865.459875359553</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.459875359553</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1865.459875359553</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1865.459875359553</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1784.135627920807</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1642.255692218486</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1457.487496138122</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1252.514357277388</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1055.992980110606</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>892.5156338772687</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.8227452305611</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1332.597773069249</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>1160.625209948165</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>997.3084370749358</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>831.1002312277893</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>831.1002312277893</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>664.8432615220215</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>658.1992115390241</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>658.1992115390241</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>715.6905397631821</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>942.2181409690193</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>1296.90746226344</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1688.093257233691</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>2065.584768109727</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>2421.01289678949</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2711.612108711391</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2791.573625639326</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2791.573625639326</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>2548.234277865226</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>2548.234277865226</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>2266.522810473255</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1991.670406645768</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>1749.106510091573</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>1522.763741781315</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2036.981537365002</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1610.080807378302</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1610.080807378302</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1184.103867526159</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>758.9796857155595</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>354.6406233050082</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>56.77224477904305</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>759.3287739197008</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.885303060359</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1562.413895425409</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1562.413895425409</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2264.970424566066</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2721.05590407025</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2838.612238952152</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2838.612238952152</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2838.612238952152</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2456.829901656532</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>56.77224477904305</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>56.77224477904305</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>647.2571713473826</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1162.903346218895</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>1162.903346218895</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>1162.903346218895</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>1162.903346218895</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.459875359553</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1139.95336730328</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>967.9808041821959</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>804.6640313089666</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>638.4558254618202</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>466.5940512363806</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>695.480495503459</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2237.185272192171</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.185272192171</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1993.845924418071</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1993.845924418071</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1993.845924418071</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1718.993520590584</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1556.462104325604</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1330.119336015346</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>111.3736009736648</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
@@ -7991,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>89.67495492258647</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>745.4176605328474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>747.0843226374699</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>746.9326825724842</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>718.3711681955554</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>430.1661698447287</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
-        <v>732.8249494602603</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>731.4239009428668</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.9639921775562</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>747.965102170661</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>747.0440190940622</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>747.2284215482694</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>732.1681464522677</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
-        <v>156.3810644894981</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>731.4239009428668</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>747.965102170661</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>599.6676991309804</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>747.0440190940622</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>670.9854145698586</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
-        <v>732.8249494602603</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>747.965102170661</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>257.5674281343983</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>747.0440190940622</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>261.9877326638527</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>730.9960879515797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209543</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>276.0147300838795</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10194,7 +10196,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10206,7 +10208,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
-        <v>991.4483453949176</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>104.5829721389275</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>945.3837843189287</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.7448096343406</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>747.965102170661</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>747.0843226374699</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>747.0440190940622</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>430.7478636428272</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>730.9960879515797</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8249494602603</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,22 +11299,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>747.965102170661</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>747.0843226374699</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>138.8236555264156</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>747.2284215482694</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>543.3698088066664</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>731.4239009428668</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>107.4271337259771</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>134.2192421395745</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>165.7641609568369</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.2643090249422</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
-        <v>56.46042176697514</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30.47848741793359</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.25598037821504</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>176.5852938824653</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.48700372508384</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>185.3716196335911</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>50.56495090172248</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>383.3804132755361</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7806963237597</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.3193834219939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>79.23215548632211</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635957.4603021077</v>
+        <v>634748.5313487215</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>635957.4603021077</v>
+        <v>634748.5313487215</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425017.2684217489</v>
+        <v>609040.4030991571</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425017.2684217489</v>
+        <v>609040.4030991571</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618498.79677074</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618498.7967707398</v>
+        <v>618498.79677074</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618498.79677074</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618498.7967707397</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618498.7967707398</v>
+        <v>618498.79677074</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425017.2684217488</v>
+        <v>609040.4030991571</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425017.2684217489</v>
+        <v>609040.4030991571</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>393148.8009075351</v>
       </c>
       <c r="C2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.8009075352</v>
       </c>
       <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794163</v>
       </c>
       <c r="F2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="G2" t="n">
+        <v>379370.5221177769</v>
+      </c>
+      <c r="H2" t="n">
         <v>379370.5221177771</v>
-      </c>
-      <c r="H2" t="n">
-        <v>379370.522117777</v>
       </c>
       <c r="I2" t="n">
         <v>379370.522117777</v>
@@ -26338,22 +26340,22 @@
         <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.5221177768</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177767</v>
       </c>
       <c r="O2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="P2" t="n">
-        <v>260697.9827501004</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>49567.19967603217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155990.2311696563</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>39486.74887272517</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>122360.4569351072</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>122360.4569351072</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>10362.58117757822</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>10362.58117757822</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="H4" t="n">
         <v>15116.17365792744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.1736579274</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>10362.58117757822</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>10362.58117757822</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8832.596113644424</v>
+        <v>-8832.596113644453</v>
       </c>
       <c r="C6" t="n">
-        <v>144446.638264323</v>
+        <v>177572.137301093</v>
       </c>
       <c r="D6" t="n">
-        <v>194013.8379403552</v>
+        <v>177572.1373010928</v>
       </c>
       <c r="E6" t="n">
-        <v>207188.4955404495</v>
+        <v>75194.62607305218</v>
       </c>
       <c r="F6" t="n">
-        <v>207188.4955404495</v>
+        <v>282626.9136896133</v>
       </c>
       <c r="G6" t="n">
-        <v>130514.0551017637</v>
+        <v>278878.6641879383</v>
       </c>
       <c r="H6" t="n">
-        <v>286504.2862714198</v>
+        <v>286504.28627142</v>
       </c>
       <c r="I6" t="n">
         <v>286504.2862714198</v>
@@ -26546,22 +26548,22 @@
         <v>140970.6163366034</v>
       </c>
       <c r="K6" t="n">
-        <v>247017.5373986947</v>
+        <v>286504.2862714198</v>
       </c>
       <c r="L6" t="n">
         <v>286504.2862714198</v>
       </c>
       <c r="M6" t="n">
-        <v>286504.2862714197</v>
+        <v>113373.7950657801</v>
       </c>
       <c r="N6" t="n">
-        <v>286504.2862714198</v>
+        <v>286504.2862714196</v>
       </c>
       <c r="O6" t="n">
-        <v>207188.4955404495</v>
+        <v>282626.9136896135</v>
       </c>
       <c r="P6" t="n">
-        <v>207188.4955404495</v>
+        <v>282626.9136896133</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>74.65813289307448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>59.53268633643424</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>134.1953575299976</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.11859830455714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>157.6836177392387</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>95.07702309884439</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>17.29661525776427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28959,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>67.9041137177578</v>
-      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.9802088395313</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="O6" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>101.5440326919697</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>709.6530597380381</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
-        <v>133.2091747672759</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>709.6530597380381</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>709.6530597380381</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>562.2364362315486</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>648.470327855629</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>709.6530597380381</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>220.2878052999522</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>709.6530597380381</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8909521515247</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>238.7351072494335</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
-        <v>954.1687225604716</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>83.23994392538586</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>907.0717418863059</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.9802088395313</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>709.6530597380381</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>709.6530597380381</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>709.6530597380381</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>709.6530597380381</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>709.6530597380381</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>709.6530597380381</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>101.5440326919696</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>709.6530597380381</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>520.8547220924368</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639428.444567226</v>
+        <v>1638710.454452367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760745</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7171039.886320177</v>
+        <v>7171039.886320176</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>71.21229122917212</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -873,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -904,16 +904,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1147,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>22.51978202893092</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1542,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>91.02068200355093</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1666,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>80.34440564602558</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>161.2348089360514</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,10 +2013,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2052,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.0788638521123</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2569,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>151.8263605587722</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.84953174088693</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869304</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>106.2722943990321</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -4036,10 +4036,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L2" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N2" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O2" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="M2" t="n">
-        <v>2059.098288819458</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2059.098288819458</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2059.098288819458</v>
-      </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="3">
@@ -4406,13 +4406,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
         <v>201.1892506764427</v>
@@ -4421,10 +4421,10 @@
         <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
         <v>1853.185855629757</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4521,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>1202.502328002918</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4576,43 +4576,43 @@
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>145.4613228325354</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>123.524787020797</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>102.142350880454</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>1013.800675230822</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405491</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5071,22 +5071,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
         <v>1362.599788512017</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1945.210541686148</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1670.358137858661</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>1427.794241304467</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>1201.451472994209</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5314,10 +5314,10 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
         <v>3363.661363873117</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5469,19 +5469,19 @@
         <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1263.413092504868</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>1020.849195950673</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>939.6932306516574</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5521,19 +5521,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5545,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
         <v>246.0989818976742</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1717.485375904543</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>1474.921479350348</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>1248.57871104009</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5758,10 +5758,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5831,22 +5831,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
         <v>1828.971033901635</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6262,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
         <v>1828.971033901635</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6952,13 +6952,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>869.7150043171358</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>381.4468456473314</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>381.4468456473314</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>381.4468456473314</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1270.928123658803</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>436.446387705348</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>436.446387705348</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>436.446387705348</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>270.1894179995801</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>126.3931495077345</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,43 +7420,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>974.8349877085116</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>974.8349877085116</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>811.5182148352823</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>645.3100089881358</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>473.4482347626962</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>307.1912650569283</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1443.741652572964</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>1201.17775601877</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>974.8349877085116</v>
       </c>
     </row>
     <row r="44">
@@ -7648,16 +7648,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7684,7 +7684,7 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
         <v>3775.38136270537</v>
@@ -7727,28 +7727,28 @@
         <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>173.266988396334</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8224,7 +8224,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8236,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>467.7777678727252</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,16 +8467,16 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>961.2653054142716</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8704,7 +8704,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8932,7 +8932,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9178,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9479,25 +9479,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>165.4360762348142</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,13 +9728,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10117,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10904,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,10 +10916,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>116.6167335079122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,13 +11375,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,7 +11390,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11399,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>187.8736707145005</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>143.7349349811298</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.2643090249422</v>
+        <v>27.0295000888936</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>20.60474129238469</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>72.25298006838318</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>74.92135083623985</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090172248</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>36.08601140789509</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609040.4030991571</v>
+        <v>609040.4030991573</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618498.79677074</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618498.79677074</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618498.79677074</v>
+        <v>618498.7967707398</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>393148.8009075352</v>
+      </c>
+      <c r="C2" t="n">
         <v>393148.8009075351</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>393148.8009075352</v>
       </c>
-      <c r="D2" t="n">
-        <v>393148.8009075351</v>
-      </c>
       <c r="E2" t="n">
-        <v>373569.1848794163</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794165</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="G2" t="n">
         <v>379370.5221177769</v>
@@ -26334,13 +26334,13 @@
         <v>379370.5221177771</v>
       </c>
       <c r="I2" t="n">
+        <v>379370.5221177769</v>
+      </c>
+      <c r="J2" t="n">
+        <v>379370.5221177769</v>
+      </c>
+      <c r="K2" t="n">
         <v>379370.522117777</v>
-      </c>
-      <c r="J2" t="n">
-        <v>379370.522117777</v>
-      </c>
-      <c r="K2" t="n">
-        <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
         <v>379370.5221177769</v>
@@ -26349,10 +26349,10 @@
         <v>379370.5221177768</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26432,16 +26432,16 @@
         <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15116.1736579274</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792744</v>
@@ -26450,10 +26450,10 @@
         <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="N4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8832.596113644453</v>
+        <v>-8832.596113644337</v>
       </c>
       <c r="C6" t="n">
-        <v>177572.137301093</v>
+        <v>177572.1373010928</v>
       </c>
       <c r="D6" t="n">
-        <v>177572.1373010928</v>
+        <v>177572.1373010929</v>
       </c>
       <c r="E6" t="n">
-        <v>75194.62607305218</v>
+        <v>75122.10897665197</v>
       </c>
       <c r="F6" t="n">
-        <v>282626.9136896133</v>
+        <v>282554.3965932128</v>
       </c>
       <c r="G6" t="n">
-        <v>278878.6641879383</v>
+        <v>278827.633525754</v>
       </c>
       <c r="H6" t="n">
-        <v>286504.28627142</v>
+        <v>286453.2556092357</v>
       </c>
       <c r="I6" t="n">
-        <v>286504.2862714198</v>
+        <v>286453.2556092355</v>
       </c>
       <c r="J6" t="n">
-        <v>140970.6163366034</v>
+        <v>140919.585674419</v>
       </c>
       <c r="K6" t="n">
-        <v>286504.2862714198</v>
+        <v>286453.2556092356</v>
       </c>
       <c r="L6" t="n">
-        <v>286504.2862714198</v>
+        <v>286453.2556092354</v>
       </c>
       <c r="M6" t="n">
-        <v>113373.7950657801</v>
+        <v>113322.7644035958</v>
       </c>
       <c r="N6" t="n">
-        <v>286504.2862714196</v>
+        <v>286453.2556092355</v>
       </c>
       <c r="O6" t="n">
-        <v>282626.9136896135</v>
+        <v>282554.3965932129</v>
       </c>
       <c r="P6" t="n">
-        <v>282626.9136896133</v>
+        <v>282554.3965932129</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.095730177743476</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>114.189558399806</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>53.8285004100398</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>922.9532629816487</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35424,7 +35424,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35652,7 +35652,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35898,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36199,25 +36199,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36837,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37624,10 +37624,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,13 +38095,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
